--- a/Documents/Parts 235.xlsx
+++ b/Documents/Parts 235.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Newark</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>40M6586</t>
+  </si>
+  <si>
+    <t>My Bio Defense, Folding UV Light Wand</t>
   </si>
 </sst>
 </file>
@@ -426,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C8"/>
+  <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,6 +502,11 @@
         <v>14</v>
       </c>
     </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" tooltip="68T2935" display="http://www.newark.com/atmel/atmega328p-au/microcontroller-mcu-8-bit-atmega/dp/68T2935"/>
